--- a/doc/C61(818)/1_星闪悦动通信协议-V1.0.7.xlsx
+++ b/doc/C61(818)/1_星闪悦动通信协议-V1.0.7.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E32E350-250C-4BC6-B33D-ACB3FE942C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F22505-DE6E-4124-911D-95F5EA285CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通信协议" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="按键编码" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -27,9 +26,6 @@
   </si>
   <si>
     <t>bit[11-0]</t>
-  </si>
-  <si>
-    <t>Keyboard/Keypad Page</t>
   </si>
   <si>
     <t>见&lt;HID Usage Tables&gt;</t>
@@ -1772,6 +1768,10 @@
       <t xml:space="preserve">
 0x1B,   // 宏重复次数</t>
     </r>
+  </si>
+  <si>
+    <t>Keyboard/Keypad Page</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2032,14 +2032,20 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2053,29 +2059,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2424,232 +2424,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G88" sqref="G88:M88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="24.08984375" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" customWidth="1"/>
-    <col min="10" max="26" width="19.90625" customWidth="1"/>
+    <col min="1" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="10" max="26" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:15" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="11"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:15" ht="63.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35"/>
+      <c r="B6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35"/>
+      <c r="B7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="34" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="C11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="17" t="s">
+    </row>
+    <row r="12" spans="1:15" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14"/>
+      <c r="G12" s="30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="G12" s="37" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>53</v>
-      </c>
       <c r="B15" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>92</v>
@@ -2661,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2">
         <v>255</v>
@@ -2677,10 +2677,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="32"/>
       <c r="B16" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>92</v>
@@ -2689,95 +2689,95 @@
         <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="O16" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="128.44999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>226</v>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="I20" s="2">
         <v>255</v>
@@ -2793,31 +2793,31 @@
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
     </row>
-    <row r="21" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
       <c r="B21" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="2">
         <v>255</v>
@@ -2830,36 +2830,36 @@
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" ht="49.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="49.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="G22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>70</v>
+    <row r="24" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>92</v>
@@ -2871,28 +2871,28 @@
         <v>35</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="29"/>
       <c r="B25" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2">
         <v>92</v>
@@ -2901,53 +2901,53 @@
         <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:17" ht="109" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="194.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-    </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>77</v>
-      </c>
       <c r="B28" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>92</v>
@@ -2959,37 +2959,37 @@
         <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+    </row>
+    <row r="29" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="29"/>
       <c r="B29" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>92</v>
@@ -2998,62 +2998,62 @@
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="48.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-    </row>
-    <row r="31" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>87</v>
-      </c>
       <c r="B32" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2">
         <v>92</v>
@@ -3065,16 +3065,16 @@
         <v>43</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -3082,10 +3082,10 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="29"/>
       <c r="B33" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
         <v>92</v>
@@ -3094,56 +3094,56 @@
         <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-    </row>
-    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>94</v>
-      </c>
       <c r="B36" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
         <v>92</v>
@@ -3155,13 +3155,13 @@
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="I36" s="2">
         <v>255</v>
@@ -3173,10 +3173,10 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="29"/>
       <c r="B37" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2">
         <v>92</v>
@@ -3185,19 +3185,19 @@
         <v>130</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J37" s="2">
         <v>255</v>
@@ -3208,49 +3208,49 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+    </row>
+    <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-    </row>
-    <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+    </row>
+    <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-    </row>
-    <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>101</v>
-      </c>
       <c r="B41" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2">
         <v>92</v>
@@ -3262,49 +3262,49 @@
         <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="R41" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R41" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+    </row>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
       <c r="B42" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>92</v>
@@ -3313,74 +3313,74 @@
         <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="Q42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="R42" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R42" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="48.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
-      <c r="G43" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-    </row>
-    <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>227</v>
+    <row r="45" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="2">
         <v>92</v>
@@ -3392,37 +3392,37 @@
         <v>39</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="L45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+    </row>
+    <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="29"/>
       <c r="B46" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2">
         <v>92</v>
@@ -3431,62 +3431,62 @@
         <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="L46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
-      <c r="G47" s="39" t="s">
+      <c r="G47" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-    </row>
-    <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>118</v>
-      </c>
       <c r="B49" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="2">
         <v>92</v>
@@ -3498,30 +3498,30 @@
         <v>36</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="K49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+    <row r="50" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="29"/>
       <c r="B50" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2">
         <v>92</v>
@@ -3530,55 +3530,55 @@
         <v>57</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="K50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="39" t="s">
+      <c r="G51" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+    </row>
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-    </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>122</v>
-      </c>
       <c r="B53" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2">
         <v>92</v>
@@ -3590,28 +3590,28 @@
         <v>37</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
+    <row r="54" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="29"/>
       <c r="B54" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="2">
         <v>92</v>
@@ -3620,53 +3620,53 @@
         <v>58</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="43.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="43.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+    </row>
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-    </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-    </row>
-    <row r="57" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
-        <v>229</v>
-      </c>
       <c r="B57" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" s="2">
         <v>92</v>
@@ -3678,28 +3678,28 @@
         <v>40</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I57" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="29"/>
       <c r="B58" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="2">
         <v>92</v>
@@ -3708,53 +3708,53 @@
         <v>59</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-    </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+    </row>
+    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
-        <v>126</v>
+    <row r="61" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="2">
         <v>92</v>
@@ -3766,37 +3766,37 @@
         <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="N61" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="29"/>
       <c r="B62" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2">
         <v>92</v>
@@ -3805,62 +3805,62 @@
         <v>59</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M62" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="N62" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="39" t="s">
+      <c r="G63" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+    </row>
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-    </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
-    </row>
-    <row r="65" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>135</v>
-      </c>
       <c r="B65" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" s="2">
         <v>92</v>
@@ -3872,30 +3872,30 @@
         <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I65" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
+    <row r="66" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="29"/>
       <c r="B66" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2">
         <v>92</v>
@@ -3904,259 +3904,259 @@
         <v>59</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
-      <c r="G67" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-    </row>
-    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
-        <v>138</v>
+    <row r="69" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" s="2">
         <v>92</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2">
         <v>32</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H69" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I69" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I69" s="19" t="s">
+      <c r="J69" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="J69" s="19" t="s">
+      <c r="K69" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="K69" s="19" t="s">
-        <v>143</v>
-      </c>
       <c r="M69" s="19"/>
     </row>
-    <row r="70" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
+    <row r="70" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="29"/>
       <c r="B70" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2">
         <v>92</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H70" s="19" t="s">
+      <c r="I70" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="19"/>
       <c r="L70" s="19"/>
       <c r="M70" s="19"/>
     </row>
-    <row r="71" spans="1:23" ht="91" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-    </row>
-    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="14"/>
-    </row>
-    <row r="73" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
-        <v>146</v>
-      </c>
       <c r="B73" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="2">
         <v>92</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2">
         <v>33</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H73" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I73" s="19" t="s">
+      <c r="J73" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L73" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J73" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="L73" s="19" t="s">
+      <c r="M73" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="M73" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
+    </row>
+    <row r="74" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="29"/>
       <c r="B74" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2">
         <v>92</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G74" s="25" t="s">
-        <v>48</v>
-      </c>
       <c r="H74" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I74" s="19" t="s">
+      <c r="J74" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L74" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J74" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="L74" s="19" t="s">
+      <c r="M74" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="M74" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:23" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
-      <c r="G75" s="39" t="s">
+      <c r="G75" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-    </row>
-    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="14"/>
-    </row>
-    <row r="77" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+    </row>
+    <row r="78" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-    </row>
-    <row r="78" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
-        <v>154</v>
-      </c>
       <c r="B78" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" s="2">
         <v>92</v>
@@ -4168,64 +4168,64 @@
         <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M78" s="2" t="s">
+      <c r="N78" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="O78" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="P78" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="Q78" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="R78" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="S78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S78" s="2" t="s">
+      <c r="T78" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T78" s="2" t="s">
+      <c r="U78" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="U78" s="2" t="s">
+      <c r="V78" s="23" t="s">
         <v>168</v>
-      </c>
-      <c r="V78" s="23" t="s">
-        <v>169</v>
       </c>
       <c r="W78" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
+    <row r="79" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="29"/>
       <c r="B79" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C79" s="2">
         <v>92</v>
@@ -4234,89 +4234,89 @@
         <v>44</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="N79" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="O79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="P79" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="Q79" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="S79" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T79" s="2" t="s">
+      <c r="U79" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="U79" s="2" t="s">
+      <c r="V79" s="23" t="s">
         <v>168</v>
-      </c>
-      <c r="V79" s="23" t="s">
-        <v>169</v>
       </c>
       <c r="W79" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="88" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
-      <c r="G80" s="39" t="s">
+      <c r="G80" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-    </row>
-    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="14"/>
-    </row>
-    <row r="82" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36" t="s">
-        <v>172</v>
-      </c>
       <c r="B82" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82" s="2">
         <v>92</v>
@@ -4328,64 +4328,64 @@
         <v>25</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I82" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="J82" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="J82" s="23" t="s">
+      <c r="K82" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="K82" s="23" t="s">
+      <c r="L82" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="L82" s="23" t="s">
+      <c r="M82" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="M82" s="23" t="s">
+      <c r="N82" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="N82" s="23" t="s">
+      <c r="O82" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="O82" s="23" t="s">
+      <c r="P82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P82" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="Q82" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S82" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S82" s="2" t="s">
+      <c r="T82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T82" s="2" t="s">
+      <c r="U82" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="U82" s="2" t="s">
+      <c r="V82" s="23" t="s">
         <v>168</v>
-      </c>
-      <c r="V82" s="23" t="s">
-        <v>169</v>
       </c>
       <c r="W82" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
+    <row r="83" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="29"/>
       <c r="B83" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83" s="2">
         <v>92</v>
@@ -4394,89 +4394,89 @@
         <v>44</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H83" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I83" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="I83" s="23" t="s">
+      <c r="J83" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="J83" s="23" t="s">
+      <c r="K83" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="K83" s="23" t="s">
+      <c r="L83" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="L83" s="23" t="s">
+      <c r="M83" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="M83" s="23" t="s">
+      <c r="N83" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="N83" s="23" t="s">
+      <c r="O83" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="O83" s="23" t="s">
+      <c r="P83" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P83" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="Q83" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S83" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S83" s="2" t="s">
+      <c r="T83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T83" s="2" t="s">
+      <c r="U83" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="U83" s="2" t="s">
+      <c r="V83" s="23" t="s">
         <v>168</v>
-      </c>
-      <c r="V83" s="23" t="s">
-        <v>169</v>
       </c>
       <c r="W83" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="55.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="55.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
-      <c r="G84" s="39" t="s">
+      <c r="G84" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-    </row>
-    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="14"/>
-    </row>
-    <row r="86" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
-        <v>175</v>
-      </c>
       <c r="B86" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C86" s="2">
         <v>92</v>
@@ -4488,30 +4488,30 @@
         <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I86" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J86" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="J86" s="26" t="s">
+      <c r="K86" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="K86" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
+    <row r="87" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="29"/>
       <c r="B87" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C87" s="2">
         <v>92</v>
@@ -4520,72 +4520,72 @@
         <v>57</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I87" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J87" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="J87" s="26" t="s">
+      <c r="K87" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="K87" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="45.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
-      <c r="G88" s="39" t="s">
+      <c r="G88" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="14"/>
+    </row>
+    <row r="90" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-    </row>
-    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="14"/>
-    </row>
-    <row r="90" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+    </row>
+    <row r="91" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-    </row>
-    <row r="91" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
-        <v>182</v>
-      </c>
       <c r="B91" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C91" s="2">
         <v>92</v>
@@ -4597,16 +4597,16 @@
         <v>8</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H91" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="H91" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="I91" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J91" s="2">
         <v>255</v>
@@ -4621,10 +4621,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
+    <row r="92" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="29"/>
       <c r="B92" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C92" s="2">
         <v>92</v>
@@ -4633,19 +4633,19 @@
         <v>21</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I92" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="I92" s="23" t="s">
-        <v>184</v>
       </c>
       <c r="J92" s="2">
         <v>255</v>
@@ -4658,32 +4658,32 @@
       </c>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" spans="1:23" ht="117.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="117.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
-      <c r="G93" s="37" t="s">
+      <c r="G93" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-    </row>
-    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="14"/>
-    </row>
-    <row r="95" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
-        <v>187</v>
-      </c>
       <c r="B95" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2">
         <v>92</v>
@@ -4695,13 +4695,13 @@
         <v>9</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="I95" s="2">
         <v>255</v>
@@ -4711,10 +4711,10 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
+    <row r="96" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="29"/>
       <c r="B96" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C96" s="2">
         <v>92</v>
@@ -4723,16 +4723,16 @@
         <v>4</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="I96" s="2">
         <v>255</v>
@@ -4744,32 +4744,32 @@
       <c r="L96" s="2"/>
       <c r="M96" s="17"/>
     </row>
-    <row r="97" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
-      <c r="G97" s="39" t="s">
+      <c r="G97" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+    </row>
+    <row r="98" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-    </row>
-    <row r="98" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="14"/>
-    </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36" t="s">
-        <v>193</v>
-      </c>
       <c r="B99" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C99" s="2">
         <v>92</v>
@@ -4781,7 +4781,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G99" s="2">
         <v>255</v>
@@ -4795,10 +4795,10 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="29"/>
       <c r="B100" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" s="2">
         <v>92</v>
@@ -4807,13 +4807,13 @@
         <v>3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H100" s="2">
         <v>255</v>
@@ -4826,32 +4826,32 @@
       <c r="L100" s="2"/>
       <c r="M100" s="17"/>
     </row>
-    <row r="101" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
-      <c r="G101" s="39" t="s">
+      <c r="G101" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+    </row>
+    <row r="102" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="14"/>
+    </row>
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-    </row>
-    <row r="102" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="14"/>
-    </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36" t="s">
-        <v>196</v>
-      </c>
       <c r="B103" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C103" s="2">
         <v>92</v>
@@ -4863,26 +4863,26 @@
         <v>11</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G103" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="I103" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J103" s="17"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="29"/>
       <c r="B104" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2">
         <v>92</v>
@@ -4891,84 +4891,84 @@
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="J104" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="17"/>
     </row>
-    <row r="105" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
-      <c r="G105" s="39" t="s">
+      <c r="G105" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+    </row>
+    <row r="106" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
-    </row>
-    <row r="106" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="14"/>
-    </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36" t="s">
-        <v>200</v>
-      </c>
       <c r="B107" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2">
         <v>92</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E107" s="2">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="J107" s="17"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="29"/>
       <c r="B108" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C108" s="2">
         <v>92</v>
@@ -4977,51 +4977,51 @@
         <v>7</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H108" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="17"/>
     </row>
-    <row r="109" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
-      <c r="G109" s="39" t="s">
+      <c r="G109" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="28"/>
+    </row>
+    <row r="110" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="14"/>
+    </row>
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-    </row>
-    <row r="110" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="14"/>
-    </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36" t="s">
-        <v>206</v>
-      </c>
       <c r="B111" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="2">
         <v>92</v>
@@ -5033,13 +5033,13 @@
         <v>13</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
@@ -5047,65 +5047,65 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="29"/>
       <c r="B112" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="2">
         <v>92</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="F112" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H112" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I112" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J112" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="17"/>
     </row>
-    <row r="113" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
-      <c r="G113" s="39" t="s">
+      <c r="G113" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="28"/>
+    </row>
+    <row r="114" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="14"/>
+    </row>
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="39"/>
-      <c r="K113" s="39"/>
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
-    </row>
-    <row r="114" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="14"/>
-    </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="36" t="s">
-        <v>210</v>
-      </c>
       <c r="B115" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C115" s="2">
         <v>92</v>
@@ -5117,13 +5117,13 @@
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G115" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="I115" s="2">
         <v>255</v>
@@ -5135,10 +5135,10 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="29"/>
       <c r="B116" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2">
         <v>92</v>
@@ -5147,22 +5147,22 @@
         <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H116" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="J116" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K116" s="2">
         <v>255</v>
@@ -5172,39 +5172,39 @@
       </c>
       <c r="M116" s="17"/>
     </row>
-    <row r="117" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
-      <c r="G117" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
-    </row>
-    <row r="118" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+    </row>
+    <row r="118" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="14"/>
     </row>
-    <row r="122" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="14"/>
     </row>
-    <row r="123" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5219,245 +5219,305 @@
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
     </row>
-    <row r="124" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
     </row>
-    <row r="125" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
     </row>
-    <row r="126" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="14"/>
     </row>
-    <row r="127" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="14"/>
     </row>
-    <row r="128" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="14"/>
     </row>
-    <row r="129" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="14"/>
     </row>
-    <row r="130" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="14"/>
     </row>
-    <row r="131" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="14"/>
     </row>
-    <row r="132" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="14"/>
     </row>
-    <row r="133" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="14"/>
     </row>
-    <row r="134" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="14"/>
     </row>
-    <row r="135" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="14"/>
     </row>
-    <row r="136" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="14"/>
     </row>
-    <row r="137" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="14"/>
     </row>
-    <row r="138" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="14"/>
     </row>
-    <row r="139" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" s="14"/>
     </row>
-    <row r="140" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="14"/>
     </row>
-    <row r="141" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="14"/>
     </row>
-    <row r="142" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="14"/>
     </row>
-    <row r="143" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="14"/>
     </row>
-    <row r="144" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="14"/>
     </row>
-    <row r="145" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="14"/>
     </row>
-    <row r="146" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="14"/>
     </row>
-    <row r="147" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="14"/>
     </row>
-    <row r="148" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="14"/>
     </row>
-    <row r="149" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="14"/>
     </row>
-    <row r="150" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="14"/>
     </row>
-    <row r="151" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="14"/>
     </row>
-    <row r="152" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="14"/>
     </row>
-    <row r="153" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B153" s="14"/>
     </row>
-    <row r="154" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B154" s="14"/>
     </row>
-    <row r="155" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" s="14"/>
     </row>
-    <row r="156" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" s="14"/>
     </row>
-    <row r="157" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B157" s="14"/>
     </row>
-    <row r="158" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="14"/>
     </row>
-    <row r="159" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="14"/>
     </row>
-    <row r="160" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="14"/>
     </row>
-    <row r="161" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="14"/>
     </row>
-    <row r="162" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B162" s="14"/>
     </row>
-    <row r="163" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B163" s="14"/>
     </row>
-    <row r="164" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="14"/>
     </row>
-    <row r="165" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B165" s="14"/>
     </row>
-    <row r="166" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" s="14"/>
     </row>
-    <row r="167" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B167" s="14"/>
     </row>
-    <row r="168" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B168" s="14"/>
     </row>
-    <row r="169" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B169" s="14"/>
     </row>
-    <row r="170" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B170" s="14"/>
     </row>
-    <row r="171" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B171" s="14"/>
     </row>
-    <row r="172" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B172" s="14"/>
     </row>
-    <row r="173" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="14"/>
     </row>
-    <row r="174" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" s="14"/>
     </row>
-    <row r="175" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="14"/>
     </row>
-    <row r="176" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="14"/>
     </row>
-    <row r="177" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="14"/>
     </row>
-    <row r="178" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="14"/>
     </row>
-    <row r="179" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="14"/>
     </row>
-    <row r="180" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="14"/>
     </row>
-    <row r="181" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B181" s="14"/>
     </row>
-    <row r="182" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="14"/>
     </row>
-    <row r="183" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" s="14"/>
     </row>
-    <row r="184" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B184" s="14"/>
     </row>
-    <row r="185" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B185" s="14"/>
     </row>
-    <row r="186" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B186" s="14"/>
     </row>
-    <row r="187" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B187" s="14"/>
     </row>
-    <row r="188" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" s="14"/>
     </row>
-    <row r="189" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B189" s="14"/>
     </row>
-    <row r="190" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B190" s="14"/>
     </row>
-    <row r="191" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B191" s="14"/>
     </row>
-    <row r="192" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="14"/>
     </row>
-    <row r="193" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B193" s="14"/>
     </row>
-    <row r="194" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" s="14"/>
     </row>
-    <row r="195" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" s="14"/>
     </row>
-    <row r="196" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B196" s="14"/>
     </row>
-    <row r="197" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B197" s="14"/>
     </row>
-    <row r="198" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B198" s="14"/>
     </row>
-    <row r="199" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B199" s="14"/>
     </row>
-    <row r="200" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B200" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="G63:M63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="G67:M67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G75:M75"/>
+    <mergeCell ref="A77:M77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="G84:M84"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="G88:M88"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="G93:M93"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="G97:M97"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="G101:M101"/>
     <mergeCell ref="G113:M113"/>
     <mergeCell ref="A115:A116"/>
     <mergeCell ref="G117:M117"/>
@@ -5466,66 +5526,6 @@
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="G109:M109"/>
     <mergeCell ref="A111:A112"/>
-    <mergeCell ref="G93:M93"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="G97:M97"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="G101:M101"/>
-    <mergeCell ref="G84:M84"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="G88:M88"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="G75:M75"/>
-    <mergeCell ref="A77:M77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="G67:M67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="G71:M71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="G63:M63"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5536,494 +5536,506 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="26" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="26" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" ht="294.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" ht="217.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-    </row>
-    <row r="6" spans="1:13" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="105.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+    </row>
+    <row r="18" spans="1:13" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-    </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" ht="106" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" ht="106" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="41" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-    </row>
-    <row r="18" spans="1:13" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-    </row>
-    <row r="21" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+    </row>
+    <row r="24" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-    </row>
-    <row r="24" spans="1:13" ht="45.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B14:M14"/>
     <mergeCell ref="B23:M23"/>
     <mergeCell ref="B24:M24"/>
     <mergeCell ref="B15:M15"/>
@@ -6031,16 +6043,6 @@
     <mergeCell ref="B18:M18"/>
     <mergeCell ref="B20:M20"/>
     <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6051,20 +6053,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" customWidth="1"/>
-    <col min="5" max="5" width="45.36328125" customWidth="1"/>
-    <col min="6" max="6" width="35.08984375" customWidth="1"/>
-    <col min="7" max="26" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="5" max="5" width="45.375" customWidth="1"/>
+    <col min="6" max="6" width="35.125" customWidth="1"/>
+    <col min="7" max="26" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6078,385 +6082,385 @@
       <c r="E1" s="43"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>16</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
